--- a/Atlas application All heatmaps ver2/data/dataASDID.xlsx
+++ b/Atlas application All heatmaps ver2/data/dataASDID.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au281223\Dropbox\Postdoc\ASD\Family history atlas\shiny\Atlas application All heatmaps\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27428533-6F18-544F-9722-81A6C9810DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="27792" windowHeight="14388"/>
+    <workbookView xWindow="-30260" yWindow="-3640" windowWidth="27800" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_any_id_asd" sheetId="1" r:id="rId1"/>
@@ -507,8 +508,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1124,6 +1125,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1159,6 +1177,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1334,19 +1369,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+      <selection activeCell="C59" sqref="C59:C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,22 +1410,22 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -1555,7 +1590,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69">
       <c r="A2" s="1">
         <v>43514</v>
       </c>
@@ -1566,22 +1601,22 @@
         <v>69</v>
       </c>
       <c r="J2">
+        <v>1.70705</v>
+      </c>
+      <c r="K2">
+        <v>0.1102363</v>
+      </c>
+      <c r="L2">
+        <v>97</v>
+      </c>
+      <c r="M2">
         <v>1.9223779999999999</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>0.18294560000000001</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>32</v>
-      </c>
-      <c r="M2">
-        <v>1.70705</v>
-      </c>
-      <c r="N2">
-        <v>0.1102363</v>
-      </c>
-      <c r="O2">
-        <v>97</v>
       </c>
       <c r="S2">
         <v>1.3605290000000001</v>
@@ -1665,7 +1700,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69">
       <c r="A3" s="1">
         <v>43514</v>
       </c>
@@ -1676,22 +1711,22 @@
         <v>70</v>
       </c>
       <c r="J3">
+        <v>1.3575969999999999</v>
+      </c>
+      <c r="K3">
+        <v>7.7079999999999996E-2</v>
+      </c>
+      <c r="L3">
+        <v>237</v>
+      </c>
+      <c r="M3">
         <v>1.173173</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>9.5344499999999999E-2</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>151</v>
-      </c>
-      <c r="M3">
-        <v>1.3575969999999999</v>
-      </c>
-      <c r="N3">
-        <v>7.7079999999999996E-2</v>
-      </c>
-      <c r="O3">
-        <v>237</v>
       </c>
       <c r="P3">
         <v>0.43969409999999998</v>
@@ -1856,7 +1891,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69">
       <c r="A4" s="1">
         <v>43514</v>
       </c>
@@ -1984,7 +2019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69">
       <c r="A5" s="1">
         <v>43514</v>
       </c>
@@ -2012,13 +2047,13 @@
       <c r="I5">
         <v>35</v>
       </c>
-      <c r="M5">
+      <c r="J5">
         <v>0.74380849999999998</v>
       </c>
-      <c r="N5">
+      <c r="K5">
         <v>0.30825380000000002</v>
       </c>
-      <c r="O5">
+      <c r="L5">
         <v>11</v>
       </c>
       <c r="P5">
@@ -2184,7 +2219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69">
       <c r="A6" s="1">
         <v>43514</v>
       </c>
@@ -2213,22 +2248,22 @@
         <v>71</v>
       </c>
       <c r="J6">
+        <v>0.90380839999999996</v>
+      </c>
+      <c r="K6">
+        <v>0.32133329999999999</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
         <v>0.65572430000000004</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>0.38211780000000001</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>7</v>
-      </c>
-      <c r="M6">
-        <v>0.90380839999999996</v>
-      </c>
-      <c r="N6">
-        <v>0.32133329999999999</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
       </c>
       <c r="P6">
         <v>1.087582</v>
@@ -2393,7 +2428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69">
       <c r="A7" s="1">
         <v>43514</v>
       </c>
@@ -2575,7 +2610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69">
       <c r="A8" s="1">
         <v>43514</v>
       </c>
@@ -2604,22 +2639,22 @@
         <v>54</v>
       </c>
       <c r="J8">
+        <v>0.62216539999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.2811941</v>
+      </c>
+      <c r="L8">
+        <v>13</v>
+      </c>
+      <c r="M8">
         <v>0.73524730000000005</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>0.20031189999999999</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>27</v>
-      </c>
-      <c r="M8">
-        <v>0.62216539999999998</v>
-      </c>
-      <c r="N8">
-        <v>0.2811941</v>
-      </c>
-      <c r="O8">
-        <v>13</v>
       </c>
       <c r="P8">
         <v>0.15665019999999999</v>
@@ -2784,7 +2819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69">
       <c r="A9" s="1">
         <v>43514</v>
       </c>
@@ -2876,7 +2911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69">
       <c r="A10" s="1">
         <v>43514</v>
       </c>
@@ -2905,22 +2940,22 @@
         <v>41</v>
       </c>
       <c r="J10">
+        <v>0.65741210000000005</v>
+      </c>
+      <c r="K10">
+        <v>0.29282150000000001</v>
+      </c>
+      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="M10">
         <v>0.71917580000000003</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>0.20780699999999999</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>25</v>
-      </c>
-      <c r="M10">
-        <v>0.65741210000000005</v>
-      </c>
-      <c r="N10">
-        <v>0.29282150000000001</v>
-      </c>
-      <c r="O10">
-        <v>12</v>
       </c>
       <c r="P10">
         <v>0.2349965</v>
@@ -3085,7 +3120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69">
       <c r="A11" s="1">
         <v>43514</v>
       </c>
@@ -3114,22 +3149,22 @@
         <v>135</v>
       </c>
       <c r="J11">
+        <v>0.82865920000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.16466049999999999</v>
+      </c>
+      <c r="L11">
+        <v>43</v>
+      </c>
+      <c r="M11">
         <v>0.84423709999999996</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>0.13965929999999999</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>58</v>
-      </c>
-      <c r="M11">
-        <v>0.82865920000000004</v>
-      </c>
-      <c r="N11">
-        <v>0.16466049999999999</v>
-      </c>
-      <c r="O11">
-        <v>43</v>
       </c>
       <c r="P11">
         <v>0.51011669999999998</v>
@@ -3294,7 +3329,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69">
       <c r="A12" s="1">
         <v>43514</v>
       </c>
@@ -3323,22 +3358,22 @@
         <v>26</v>
       </c>
       <c r="J12">
+        <v>1.3420829999999999</v>
+      </c>
+      <c r="K12">
+        <v>0.33755010000000002</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
         <v>0.71372930000000001</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>0.41064070000000003</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>6</v>
-      </c>
-      <c r="M12">
-        <v>1.3420829999999999</v>
-      </c>
-      <c r="N12">
-        <v>0.33755010000000002</v>
-      </c>
-      <c r="O12">
-        <v>9</v>
       </c>
       <c r="Y12">
         <v>1.7587999999999999</v>
@@ -3395,7 +3430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69">
       <c r="A13" s="1">
         <v>43514</v>
       </c>
@@ -3424,22 +3459,22 @@
         <v>24</v>
       </c>
       <c r="J13">
+        <v>1.4002300000000001</v>
+      </c>
+      <c r="K13">
+        <v>0.45077030000000001</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
         <v>0.1714511</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>0.31915120000000002</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>10</v>
-      </c>
-      <c r="M13">
-        <v>1.4002300000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.45077030000000001</v>
-      </c>
-      <c r="O13">
-        <v>5</v>
       </c>
       <c r="P13">
         <v>0.54464889999999999</v>
@@ -3523,7 +3558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69">
       <c r="A14" s="1">
         <v>43514</v>
       </c>
@@ -3542,13 +3577,13 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>0.63549100000000003</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>0.410437</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>6</v>
       </c>
       <c r="AB14">
@@ -3588,7 +3623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69">
       <c r="A15" s="1">
         <v>43514</v>
       </c>
@@ -3617,22 +3652,22 @@
         <v>18</v>
       </c>
       <c r="J15">
+        <v>0.7159972</v>
+      </c>
+      <c r="K15">
+        <v>0.35629359999999999</v>
+      </c>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
         <v>1.0333810000000001</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>0.21010419999999999</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>24</v>
-      </c>
-      <c r="M15">
-        <v>0.7159972</v>
-      </c>
-      <c r="N15">
-        <v>0.35629359999999999</v>
-      </c>
-      <c r="O15">
-        <v>8</v>
       </c>
       <c r="P15">
         <v>0.66465399999999997</v>
@@ -3797,7 +3832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69">
       <c r="A16" s="1">
         <v>43514</v>
       </c>
@@ -3808,22 +3843,22 @@
         <v>83</v>
       </c>
       <c r="J16">
+        <v>2.1986159999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.13715450000000001</v>
+      </c>
+      <c r="L16">
+        <v>61</v>
+      </c>
+      <c r="M16">
         <v>1.972351</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>0.2138726</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>23</v>
-      </c>
-      <c r="M16">
-        <v>2.1986159999999999</v>
-      </c>
-      <c r="N16">
-        <v>0.13715450000000001</v>
-      </c>
-      <c r="O16">
-        <v>61</v>
       </c>
       <c r="P16">
         <v>0.72930070000000002</v>
@@ -3988,7 +4023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:69">
       <c r="A17" s="1">
         <v>43514</v>
       </c>
@@ -4017,22 +4052,22 @@
         <v>62</v>
       </c>
       <c r="J17">
+        <v>1.4893449999999999</v>
+      </c>
+      <c r="K17">
+        <v>0.13347319999999999</v>
+      </c>
+      <c r="L17">
+        <v>60</v>
+      </c>
+      <c r="M17">
         <v>1.8319000000000001</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>0.194105</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>29</v>
-      </c>
-      <c r="M17">
-        <v>1.4893449999999999</v>
-      </c>
-      <c r="N17">
-        <v>0.13347319999999999</v>
-      </c>
-      <c r="O17">
-        <v>60</v>
       </c>
       <c r="P17">
         <v>0.84161039999999998</v>
@@ -4134,7 +4169,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:69">
       <c r="A18" s="1">
         <v>43514</v>
       </c>
@@ -4163,22 +4198,22 @@
         <v>168</v>
       </c>
       <c r="J18">
+        <v>1.237941</v>
+      </c>
+      <c r="K18">
+        <v>9.8213700000000001E-2</v>
+      </c>
+      <c r="L18">
+        <v>121</v>
+      </c>
+      <c r="M18">
         <v>1.124719</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>0.15295030000000001</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>46</v>
-      </c>
-      <c r="M18">
-        <v>1.237941</v>
-      </c>
-      <c r="N18">
-        <v>9.8213700000000001E-2</v>
-      </c>
-      <c r="O18">
-        <v>121</v>
       </c>
       <c r="P18">
         <v>0.64095409999999997</v>
@@ -4307,7 +4342,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:69">
       <c r="A19" s="1">
         <v>43514</v>
       </c>
@@ -4336,22 +4371,22 @@
         <v>145</v>
       </c>
       <c r="J19">
+        <v>1.2005159999999999</v>
+      </c>
+      <c r="K19">
+        <v>0.12016640000000001</v>
+      </c>
+      <c r="L19">
+        <v>79</v>
+      </c>
+      <c r="M19">
         <v>1.241053</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>0.195109</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>28</v>
-      </c>
-      <c r="M19">
-        <v>1.2005159999999999</v>
-      </c>
-      <c r="N19">
-        <v>0.12016640000000001</v>
-      </c>
-      <c r="O19">
-        <v>79</v>
       </c>
       <c r="P19">
         <v>0.4595996</v>
@@ -4435,7 +4470,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:69">
       <c r="A20" s="1">
         <v>43514</v>
       </c>
@@ -4454,13 +4489,13 @@
       <c r="I20">
         <v>39</v>
       </c>
-      <c r="M20">
+      <c r="J20">
         <v>1.515371</v>
       </c>
-      <c r="N20">
+      <c r="K20">
         <v>0.26991369999999998</v>
       </c>
-      <c r="O20">
+      <c r="L20">
         <v>14</v>
       </c>
       <c r="V20">
@@ -4491,7 +4526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:69">
       <c r="A21" s="1">
         <v>43514</v>
       </c>
@@ -4520,22 +4555,22 @@
         <v>34</v>
       </c>
       <c r="J21">
+        <v>1.0576650000000001</v>
+      </c>
+      <c r="K21">
+        <v>0.3568286</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="M21">
         <v>1.260918</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>0.3068862</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>11</v>
-      </c>
-      <c r="M21">
-        <v>1.0576650000000001</v>
-      </c>
-      <c r="N21">
-        <v>0.3568286</v>
-      </c>
-      <c r="O21">
-        <v>9</v>
       </c>
       <c r="P21">
         <v>0.48085280000000002</v>
@@ -4655,7 +4690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:69">
       <c r="A22" s="1">
         <v>43515</v>
       </c>
@@ -4684,22 +4719,22 @@
         <v>17</v>
       </c>
       <c r="J22">
+        <v>0.26641239999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.231464</v>
+      </c>
+      <c r="L22">
+        <v>19</v>
+      </c>
+      <c r="M22">
         <v>0.2127385</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>0.2442376</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>17</v>
-      </c>
-      <c r="M22">
-        <v>0.26641239999999999</v>
-      </c>
-      <c r="N22">
-        <v>0.231464</v>
-      </c>
-      <c r="O22">
-        <v>19</v>
       </c>
       <c r="P22">
         <v>0.1131614</v>
@@ -4864,7 +4899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:69">
       <c r="A23" s="1">
         <v>43515</v>
       </c>
@@ -4893,22 +4928,22 @@
         <v>17</v>
       </c>
       <c r="J23">
+        <v>0.18818270000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.29002630000000001</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
         <v>-0.1978384</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>0.37929679999999999</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>7</v>
-      </c>
-      <c r="M23">
-        <v>0.18818270000000001</v>
-      </c>
-      <c r="N23">
-        <v>0.29002630000000001</v>
-      </c>
-      <c r="O23">
-        <v>12</v>
       </c>
       <c r="S23">
         <v>0.58115640000000002</v>
@@ -5064,7 +5099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:69">
       <c r="A24" s="1">
         <v>43515</v>
       </c>
@@ -5210,7 +5245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:69">
       <c r="A25" s="1">
         <v>43515</v>
       </c>
@@ -5329,7 +5364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:69">
       <c r="A26" s="1">
         <v>43515</v>
       </c>
@@ -5340,22 +5375,22 @@
         <v>93</v>
       </c>
       <c r="J26">
+        <v>0.53889319999999996</v>
+      </c>
+      <c r="K26">
+        <v>0.33598810000000001</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26">
         <v>0.49576049999999999</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>0.31788670000000002</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>10</v>
-      </c>
-      <c r="M26">
-        <v>0.53889319999999996</v>
-      </c>
-      <c r="N26">
-        <v>0.33598810000000001</v>
-      </c>
-      <c r="O26">
-        <v>9</v>
       </c>
       <c r="P26">
         <v>0.14711250000000001</v>
@@ -5430,7 +5465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:69">
       <c r="A27" s="1">
         <v>43515</v>
       </c>
@@ -5459,22 +5494,22 @@
         <v>42</v>
       </c>
       <c r="J27">
+        <v>0.66784779999999999</v>
+      </c>
+      <c r="K27">
+        <v>0.26041180000000003</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+      <c r="M27">
         <v>0.46896260000000001</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>0.1799685</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>36</v>
-      </c>
-      <c r="M27">
-        <v>0.66784779999999999</v>
-      </c>
-      <c r="N27">
-        <v>0.26041180000000003</v>
-      </c>
-      <c r="O27">
-        <v>16</v>
       </c>
       <c r="P27">
         <v>9.6395700000000001E-2</v>
@@ -5630,7 +5665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:69">
       <c r="A28" s="1">
         <v>43515</v>
       </c>
@@ -5658,13 +5693,13 @@
       <c r="I28">
         <v>10</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>0.287277</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>0.32383960000000001</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>10</v>
       </c>
       <c r="P28">
@@ -5812,7 +5847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69">
       <c r="A29" s="1">
         <v>43515</v>
       </c>
@@ -5958,7 +5993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69">
       <c r="A30" s="1">
         <v>43515</v>
       </c>
@@ -5968,13 +6003,13 @@
       <c r="C30" t="s">
         <v>97</v>
       </c>
-      <c r="J30">
+      <c r="M30">
         <v>0.37667699999999998</v>
       </c>
-      <c r="K30">
+      <c r="N30">
         <v>0.34073789999999998</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>9</v>
       </c>
       <c r="P30">
@@ -6059,7 +6094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:69">
       <c r="A31" s="1">
         <v>43515</v>
       </c>
@@ -6069,13 +6104,13 @@
       <c r="C31" t="s">
         <v>98</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>0.3405648</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>0.38587339999999998</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>7</v>
       </c>
       <c r="P31">
@@ -6151,7 +6186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:69">
       <c r="A32" s="1">
         <v>43515</v>
       </c>
@@ -6180,22 +6215,22 @@
         <v>99</v>
       </c>
       <c r="J32">
+        <v>0.34151219999999999</v>
+      </c>
+      <c r="K32">
+        <v>7.7039499999999997E-2</v>
+      </c>
+      <c r="L32">
+        <v>203</v>
+      </c>
+      <c r="M32">
         <v>0.21919079999999999</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>9.2885200000000001E-2</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>136</v>
-      </c>
-      <c r="M32">
-        <v>0.34151219999999999</v>
-      </c>
-      <c r="N32">
-        <v>7.7039499999999997E-2</v>
-      </c>
-      <c r="O32">
-        <v>203</v>
       </c>
       <c r="P32">
         <v>0.1493524</v>
@@ -6360,7 +6395,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:69">
       <c r="A33" s="1">
         <v>43515</v>
       </c>
@@ -6389,22 +6424,22 @@
         <v>9</v>
       </c>
       <c r="J33">
+        <v>0.46321410000000002</v>
+      </c>
+      <c r="K33">
+        <v>0.35440050000000001</v>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
         <v>0.49925829999999999</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>0.380971</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>7</v>
-      </c>
-      <c r="M33">
-        <v>0.46321410000000002</v>
-      </c>
-      <c r="N33">
-        <v>0.35440050000000001</v>
-      </c>
-      <c r="O33">
-        <v>8</v>
       </c>
       <c r="AB33">
         <v>0.30955850000000001</v>
@@ -6461,7 +6496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:69">
       <c r="A34" s="1">
         <v>43515</v>
       </c>
@@ -6480,13 +6515,13 @@
       <c r="I34">
         <v>5</v>
       </c>
-      <c r="M34">
+      <c r="J34">
         <v>-7.2367399999999998E-2</v>
       </c>
-      <c r="N34">
+      <c r="K34">
         <v>0.4488644</v>
       </c>
-      <c r="O34">
+      <c r="L34">
         <v>5</v>
       </c>
       <c r="AB34">
@@ -6553,7 +6588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:69">
       <c r="A35" s="1">
         <v>43515</v>
       </c>
@@ -6582,22 +6617,22 @@
         <v>10</v>
       </c>
       <c r="J35">
+        <v>0.17375180000000001</v>
+      </c>
+      <c r="K35">
+        <v>0.24399480000000001</v>
+      </c>
+      <c r="L35">
+        <v>19</v>
+      </c>
+      <c r="M35">
         <v>7.5617500000000004E-2</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>0.25273770000000001</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>16</v>
-      </c>
-      <c r="M35">
-        <v>0.17375180000000001</v>
-      </c>
-      <c r="N35">
-        <v>0.24399480000000001</v>
-      </c>
-      <c r="O35">
-        <v>19</v>
       </c>
       <c r="P35">
         <v>-1.2301400000000001E-2</v>
@@ -6735,7 +6770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:69">
       <c r="A36" s="1">
         <v>43515</v>
       </c>
@@ -6764,22 +6799,22 @@
         <v>12</v>
       </c>
       <c r="J36">
+        <v>0.37777379999999999</v>
+      </c>
+      <c r="K36">
+        <v>0.1657941</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36">
         <v>0.3286848</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>0.17681140000000001</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>34</v>
-      </c>
-      <c r="M36">
-        <v>0.37777379999999999</v>
-      </c>
-      <c r="N36">
-        <v>0.1657941</v>
-      </c>
-      <c r="O36">
-        <v>40</v>
       </c>
       <c r="P36">
         <v>0.18877949999999999</v>
@@ -6935,7 +6970,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:69">
       <c r="A37" s="1">
         <v>43515</v>
       </c>
@@ -6945,13 +6980,13 @@
       <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="M37">
+      <c r="J37">
         <v>0.74059770000000003</v>
       </c>
-      <c r="N37">
+      <c r="K37">
         <v>0.33468150000000002</v>
       </c>
-      <c r="O37">
+      <c r="L37">
         <v>9</v>
       </c>
       <c r="AB37">
@@ -7036,7 +7071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:69">
       <c r="A38" s="1">
         <v>43515</v>
       </c>
@@ -7047,22 +7082,22 @@
         <v>105</v>
       </c>
       <c r="J38">
+        <v>0.8364878</v>
+      </c>
+      <c r="K38">
+        <v>0.30263699999999999</v>
+      </c>
+      <c r="L38">
+        <v>11</v>
+      </c>
+      <c r="M38">
         <v>0.44516260000000002</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>0.44646190000000002</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>5</v>
-      </c>
-      <c r="M38">
-        <v>0.8364878</v>
-      </c>
-      <c r="N38">
-        <v>0.30263699999999999</v>
-      </c>
-      <c r="O38">
-        <v>11</v>
       </c>
       <c r="AB38">
         <v>0.38889970000000001</v>
@@ -7137,7 +7172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:69">
       <c r="A39" s="1">
         <v>43515</v>
       </c>
@@ -7157,22 +7192,22 @@
         <v>9</v>
       </c>
       <c r="J39">
+        <v>0.41630060000000002</v>
+      </c>
+      <c r="K39">
+        <v>0.21953690000000001</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
         <v>-0.14526310000000001</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>0.40922350000000002</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>6</v>
-      </c>
-      <c r="M39">
-        <v>0.41630060000000002</v>
-      </c>
-      <c r="N39">
-        <v>0.21953690000000001</v>
-      </c>
-      <c r="O39">
-        <v>21</v>
       </c>
       <c r="V39">
         <v>0.56609299999999996</v>
@@ -7265,7 +7300,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:69">
       <c r="A40" s="1">
         <v>43515</v>
       </c>
@@ -7284,13 +7319,13 @@
       <c r="I40">
         <v>29</v>
       </c>
-      <c r="M40">
+      <c r="J40">
         <v>0.1167706</v>
       </c>
-      <c r="N40">
+      <c r="K40">
         <v>0.1237222</v>
       </c>
-      <c r="O40">
+      <c r="L40">
         <v>72</v>
       </c>
       <c r="V40">
@@ -7438,7 +7473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:69">
       <c r="A41" s="1">
         <v>43515</v>
       </c>
@@ -7458,22 +7493,22 @@
         <v>5</v>
       </c>
       <c r="J41">
+        <v>8.0929200000000007E-2</v>
+      </c>
+      <c r="K41">
+        <v>0.33431660000000002</v>
+      </c>
+      <c r="L41">
+        <v>9</v>
+      </c>
+      <c r="M41">
         <v>0.3214766</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>0.37868309999999999</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>7</v>
-      </c>
-      <c r="M41">
-        <v>8.0929200000000007E-2</v>
-      </c>
-      <c r="N41">
-        <v>0.33431660000000002</v>
-      </c>
-      <c r="O41">
-        <v>9</v>
       </c>
       <c r="AB41">
         <v>-9.3193499999999999E-2</v>
@@ -7593,7 +7628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:69">
       <c r="A42" s="1">
         <v>43515</v>
       </c>
@@ -7622,22 +7657,22 @@
         <v>54</v>
       </c>
       <c r="J42">
+        <v>0.1143506</v>
+      </c>
+      <c r="K42">
+        <v>0.12525849999999999</v>
+      </c>
+      <c r="L42">
+        <v>68</v>
+      </c>
+      <c r="M42">
         <v>0.32928499999999999</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>0.1156732</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>83</v>
-      </c>
-      <c r="M42">
-        <v>0.1143506</v>
-      </c>
-      <c r="N42">
-        <v>0.12525849999999999</v>
-      </c>
-      <c r="O42">
-        <v>68</v>
       </c>
       <c r="P42">
         <v>9.7095000000000001E-2</v>
@@ -7802,7 +7837,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:69">
       <c r="A43" s="1">
         <v>43515</v>
       </c>
@@ -7822,22 +7857,22 @@
         <v>5</v>
       </c>
       <c r="J43">
+        <v>0.80693110000000001</v>
+      </c>
+      <c r="K43">
+        <v>0.30261100000000002</v>
+      </c>
+      <c r="L43">
+        <v>11</v>
+      </c>
+      <c r="M43">
         <v>-0.26508969999999998</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>0.44873420000000003</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>5</v>
-      </c>
-      <c r="M43">
-        <v>0.80693110000000001</v>
-      </c>
-      <c r="N43">
-        <v>0.30261100000000002</v>
-      </c>
-      <c r="O43">
-        <v>11</v>
       </c>
       <c r="AB43">
         <v>9.1545500000000002E-2</v>
@@ -7930,7 +7965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:69">
       <c r="A44" s="1">
         <v>43515</v>
       </c>
@@ -7959,19 +7994,19 @@
         <v>44</v>
       </c>
       <c r="J44">
-        <v>0.94372900000000004</v>
+        <v>0.82136679999999995</v>
       </c>
       <c r="K44">
-        <v>0.19460189999999999</v>
+        <v>0.19875960000000001</v>
       </c>
       <c r="L44">
         <v>27</v>
       </c>
       <c r="M44">
-        <v>0.82136679999999995</v>
+        <v>0.94372900000000004</v>
       </c>
       <c r="N44">
-        <v>0.19875960000000001</v>
+        <v>0.19460189999999999</v>
       </c>
       <c r="O44">
         <v>27</v>
@@ -8085,7 +8120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:69">
       <c r="A45" s="1">
         <v>43515</v>
       </c>
@@ -8114,22 +8149,22 @@
         <v>15</v>
       </c>
       <c r="J45">
+        <v>0.38448599999999999</v>
+      </c>
+      <c r="K45">
+        <v>0.4094409</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45">
         <v>1.055876</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>0.30254449999999999</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>11</v>
-      </c>
-      <c r="M45">
-        <v>0.38448599999999999</v>
-      </c>
-      <c r="N45">
-        <v>0.4094409</v>
-      </c>
-      <c r="O45">
-        <v>7</v>
       </c>
       <c r="BF45">
         <v>-2.3505700000000001E-2</v>
@@ -8168,7 +8203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:69">
       <c r="A46" s="1">
         <v>43515</v>
       </c>
@@ -8197,22 +8232,22 @@
         <v>163</v>
       </c>
       <c r="J46">
+        <v>0.71747620000000001</v>
+      </c>
+      <c r="K46">
+        <v>9.7049700000000003E-2</v>
+      </c>
+      <c r="L46">
+        <v>121</v>
+      </c>
+      <c r="M46">
         <v>0.63017990000000002</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>0.1081792</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>98</v>
-      </c>
-      <c r="M46">
-        <v>0.71747620000000001</v>
-      </c>
-      <c r="N46">
-        <v>9.7049700000000003E-2</v>
-      </c>
-      <c r="O46">
-        <v>121</v>
       </c>
       <c r="P46">
         <v>0.1406037</v>
@@ -8377,7 +8412,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:69">
       <c r="A47" s="1">
         <v>43516</v>
       </c>
@@ -8397,22 +8432,22 @@
         <v>7</v>
       </c>
       <c r="J47">
+        <v>0.6303086</v>
+      </c>
+      <c r="K47">
+        <v>0.27878360000000002</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
         <v>0.60540340000000004</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>0.33507749999999997</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>10</v>
-      </c>
-      <c r="M47">
-        <v>0.6303086</v>
-      </c>
-      <c r="N47">
-        <v>0.27878360000000002</v>
-      </c>
-      <c r="O47">
-        <v>13</v>
       </c>
       <c r="AB47">
         <v>0.69352199999999997</v>
@@ -8541,7 +8576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:69">
       <c r="A48" s="1">
         <v>43516</v>
       </c>
@@ -8561,7 +8596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:69">
       <c r="A49" s="1">
         <v>43516</v>
       </c>
@@ -8617,7 +8652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:69">
       <c r="A50" s="1">
         <v>43516</v>
       </c>
@@ -8628,7 +8663,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:69">
       <c r="A51" s="1">
         <v>43516</v>
       </c>
@@ -8702,7 +8737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:69">
       <c r="A52" s="1">
         <v>43516</v>
       </c>
@@ -8731,22 +8766,22 @@
         <v>133</v>
       </c>
       <c r="J52">
+        <v>0.6881505</v>
+      </c>
+      <c r="K52">
+        <v>0.1222312</v>
+      </c>
+      <c r="L52">
+        <v>74</v>
+      </c>
+      <c r="M52">
         <v>0.72784629999999995</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>0.1258126</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>70</v>
-      </c>
-      <c r="M52">
-        <v>0.6881505</v>
-      </c>
-      <c r="N52">
-        <v>0.1222312</v>
-      </c>
-      <c r="O52">
-        <v>74</v>
       </c>
       <c r="P52">
         <v>0.27644160000000001</v>
@@ -8911,7 +8946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="53" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:69">
       <c r="A53" s="1">
         <v>43516</v>
       </c>
@@ -8940,22 +8975,22 @@
         <v>108</v>
       </c>
       <c r="J53">
+        <v>0.77004519999999999</v>
+      </c>
+      <c r="K53">
+        <v>0.1481508</v>
+      </c>
+      <c r="L53">
+        <v>49</v>
+      </c>
+      <c r="M53">
         <v>0.89709510000000003</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>0.1497957</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>48</v>
-      </c>
-      <c r="M53">
-        <v>0.77004519999999999</v>
-      </c>
-      <c r="N53">
-        <v>0.1481508</v>
-      </c>
-      <c r="O53">
-        <v>49</v>
       </c>
       <c r="P53">
         <v>0.27484700000000001</v>
@@ -9120,7 +9155,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="54" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:69">
       <c r="A54" s="1">
         <v>43516</v>
       </c>
@@ -9140,19 +9175,19 @@
         <v>7</v>
       </c>
       <c r="J54">
-        <v>0.53149990000000003</v>
+        <v>0.60445859999999996</v>
       </c>
       <c r="K54">
-        <v>0.33604699999999998</v>
+        <v>0.33556989999999998</v>
       </c>
       <c r="L54">
         <v>9</v>
       </c>
       <c r="M54">
-        <v>0.60445859999999996</v>
+        <v>0.53149990000000003</v>
       </c>
       <c r="N54">
-        <v>0.33556989999999998</v>
+        <v>0.33604699999999998</v>
       </c>
       <c r="O54">
         <v>9</v>
@@ -9302,7 +9337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:69">
       <c r="A55" s="1">
         <v>43516</v>
       </c>
@@ -9376,7 +9411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:69">
       <c r="A56" s="1">
         <v>43516</v>
       </c>
@@ -9404,17 +9439,17 @@
       <c r="I56">
         <v>9</v>
       </c>
-      <c r="M56">
+      <c r="J56">
         <v>1.2546379999999999</v>
       </c>
-      <c r="N56">
+      <c r="K56">
         <v>0.40991889999999997</v>
       </c>
-      <c r="O56">
+      <c r="L56">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:69">
       <c r="A57" s="1">
         <v>43516</v>
       </c>
@@ -9443,22 +9478,22 @@
         <v>37</v>
       </c>
       <c r="J57">
+        <v>0.72066300000000005</v>
+      </c>
+      <c r="K57">
+        <v>0.23708689999999999</v>
+      </c>
+      <c r="L57">
+        <v>19</v>
+      </c>
+      <c r="M57">
         <v>0.40734670000000001</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>0.33432109999999998</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>9</v>
-      </c>
-      <c r="M57">
-        <v>0.72066300000000005</v>
-      </c>
-      <c r="N57">
-        <v>0.23708689999999999</v>
-      </c>
-      <c r="O57">
-        <v>19</v>
       </c>
       <c r="Y57">
         <v>0.68006900000000003</v>
@@ -9569,7 +9604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:69">
       <c r="A58" s="1">
         <v>43516</v>
       </c>
@@ -9598,22 +9633,22 @@
         <v>44</v>
       </c>
       <c r="J58">
+        <v>0.68511529999999998</v>
+      </c>
+      <c r="K58">
+        <v>0.25113380000000002</v>
+      </c>
+      <c r="L58">
+        <v>16</v>
+      </c>
+      <c r="M58">
         <v>0.49870350000000002</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>0.30334470000000002</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>11</v>
-      </c>
-      <c r="M58">
-        <v>0.68511529999999998</v>
-      </c>
-      <c r="N58">
-        <v>0.25113380000000002</v>
-      </c>
-      <c r="O58">
-        <v>16</v>
       </c>
       <c r="S58">
         <v>0.3250864</v>
@@ -9733,7 +9768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:69">
       <c r="A59" s="1">
         <v>43516</v>
       </c>
@@ -9879,7 +9914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:69">
       <c r="A60" s="1">
         <v>43516</v>
       </c>
@@ -9962,7 +9997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:69">
       <c r="A61" s="1">
         <v>43516</v>
       </c>
@@ -9982,7 +10017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:69">
       <c r="A62" s="1">
         <v>43516</v>
       </c>
@@ -9993,7 +10028,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:69">
       <c r="A63" s="1">
         <v>43516</v>
       </c>
@@ -10049,7 +10084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:69">
       <c r="A64" s="1">
         <v>43516</v>
       </c>
@@ -10069,19 +10104,19 @@
         <v>6</v>
       </c>
       <c r="J64">
-        <v>0.35449950000000002</v>
+        <v>0.62190179999999995</v>
       </c>
       <c r="K64">
-        <v>0.4098482</v>
+        <v>0.40904849999999998</v>
       </c>
       <c r="L64">
         <v>6</v>
       </c>
       <c r="M64">
-        <v>0.62190179999999995</v>
+        <v>0.35449950000000002</v>
       </c>
       <c r="N64">
-        <v>0.40904849999999998</v>
+        <v>0.4098482</v>
       </c>
       <c r="O64">
         <v>6</v>
@@ -10132,7 +10167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:69">
       <c r="A65" s="1">
         <v>43516</v>
       </c>
@@ -10143,7 +10178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:69">
       <c r="A66" s="1">
         <v>43516</v>
       </c>
@@ -10181,7 +10216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:69">
       <c r="A67" s="1">
         <v>43516</v>
       </c>
@@ -10192,7 +10227,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:69">
       <c r="A68" s="1">
         <v>43516</v>
       </c>
@@ -10212,7 +10247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:69">
       <c r="A69" s="1">
         <v>43516</v>
       </c>
@@ -10241,7 +10276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:69">
       <c r="A70" s="1">
         <v>43516</v>
       </c>
@@ -10270,7 +10305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:69">
       <c r="A71" s="1">
         <v>43516</v>
       </c>
@@ -10281,7 +10316,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:69">
       <c r="A72" s="1">
         <v>43516</v>
       </c>
@@ -10291,13 +10326,13 @@
       <c r="C72" t="s">
         <v>139</v>
       </c>
-      <c r="J72">
+      <c r="M72">
         <v>0.72022439999999999</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>0.40951890000000002</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>6</v>
       </c>
       <c r="BF72">
@@ -10328,7 +10363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:69">
       <c r="A73" s="1">
         <v>43516</v>
       </c>
@@ -10420,7 +10455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:69">
       <c r="A74" s="1">
         <v>43516</v>
       </c>
@@ -10548,7 +10583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:69">
       <c r="A75" s="1">
         <v>43516</v>
       </c>
@@ -10568,7 +10603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:69">
       <c r="A76" s="1">
         <v>43516</v>
       </c>
@@ -10579,7 +10614,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="77" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:69">
       <c r="A77" s="1">
         <v>43516</v>
       </c>
@@ -10599,7 +10634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:69">
       <c r="A78" s="1">
         <v>43516</v>
       </c>
@@ -10673,7 +10708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:69">
       <c r="A79" s="1">
         <v>43516</v>
       </c>
@@ -10693,7 +10728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:69">
       <c r="A80" s="1">
         <v>43516</v>
       </c>
@@ -10704,7 +10739,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:69">
       <c r="A81" s="1">
         <v>43516</v>
       </c>
@@ -10715,7 +10750,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="82" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:69">
       <c r="A82" s="1">
         <v>43516</v>
       </c>
@@ -10780,7 +10815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:69">
       <c r="A83" s="1">
         <v>43516</v>
       </c>
@@ -10791,7 +10826,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:69">
       <c r="A84" s="1">
         <v>43516</v>
       </c>
@@ -10802,7 +10837,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:69">
       <c r="A85" s="1">
         <v>43516</v>
       </c>
@@ -10966,7 +11001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:69">
       <c r="A86" s="1">
         <v>43516</v>
       </c>
@@ -10995,19 +11030,19 @@
         <v>6</v>
       </c>
       <c r="J86">
-        <v>0.15964610000000001</v>
+        <v>0.4858403</v>
       </c>
       <c r="K86">
-        <v>0.41005009999999997</v>
+        <v>0.40893180000000001</v>
       </c>
       <c r="L86">
         <v>6</v>
       </c>
       <c r="M86">
-        <v>0.4858403</v>
+        <v>0.15964610000000001</v>
       </c>
       <c r="N86">
-        <v>0.40893180000000001</v>
+        <v>0.41005009999999997</v>
       </c>
       <c r="O86">
         <v>6</v>
@@ -11121,7 +11156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:69">
       <c r="A87" s="1">
         <v>43516</v>
       </c>
@@ -11141,22 +11176,22 @@
         <v>8</v>
       </c>
       <c r="J87">
+        <v>-0.16889970000000001</v>
+      </c>
+      <c r="K87">
+        <v>0.44896360000000002</v>
+      </c>
+      <c r="L87">
+        <v>6</v>
+      </c>
+      <c r="M87">
         <v>0.48401840000000002</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>0.30488340000000003</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <v>11</v>
-      </c>
-      <c r="M87">
-        <v>-0.16889970000000001</v>
-      </c>
-      <c r="N87">
-        <v>0.44896360000000002</v>
-      </c>
-      <c r="O87">
-        <v>6</v>
       </c>
       <c r="AB87">
         <v>-2.7759699999999998E-2</v>
@@ -11285,7 +11320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="88" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:69">
       <c r="A88" s="1">
         <v>43516</v>
       </c>
@@ -11314,7 +11349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:69">
       <c r="A89" s="1">
         <v>43516</v>
       </c>
@@ -11406,7 +11441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:69">
       <c r="A90" s="1">
         <v>43516</v>
       </c>
@@ -11507,7 +11542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:69">
       <c r="A91" s="1">
         <v>43516</v>
       </c>
@@ -11536,22 +11571,22 @@
         <v>29</v>
       </c>
       <c r="J91">
+        <v>6.5056000000000003E-3</v>
+      </c>
+      <c r="K91">
+        <v>0.26035180000000002</v>
+      </c>
+      <c r="L91">
+        <v>16</v>
+      </c>
+      <c r="M91">
         <v>8.2230399999999995E-2</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>0.23297290000000001</v>
       </c>
-      <c r="L91">
+      <c r="O91">
         <v>19</v>
-      </c>
-      <c r="M91">
-        <v>6.5056000000000003E-3</v>
-      </c>
-      <c r="N91">
-        <v>0.26035180000000002</v>
-      </c>
-      <c r="O91">
-        <v>16</v>
       </c>
       <c r="P91">
         <v>-8.68839E-2</v>
@@ -11716,7 +11751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:69">
       <c r="A92" s="1">
         <v>43516</v>
       </c>
@@ -11745,22 +11780,22 @@
         <v>39</v>
       </c>
       <c r="J92">
+        <v>0.15984689999999999</v>
+      </c>
+      <c r="K92">
+        <v>9.1554700000000003E-2</v>
+      </c>
+      <c r="L92">
+        <v>137</v>
+      </c>
+      <c r="M92">
         <v>0.20885110000000001</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>0.11211409999999999</v>
       </c>
-      <c r="L92">
+      <c r="O92">
         <v>87</v>
-      </c>
-      <c r="M92">
-        <v>0.15984689999999999</v>
-      </c>
-      <c r="N92">
-        <v>9.1554700000000003E-2</v>
-      </c>
-      <c r="O92">
-        <v>137</v>
       </c>
       <c r="P92">
         <v>0.107125</v>
@@ -11925,7 +11960,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="93" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:69">
       <c r="A93" s="1">
         <v>43516</v>
       </c>
@@ -11954,22 +11989,22 @@
         <v>32</v>
       </c>
       <c r="J93">
+        <v>-9.2330200000000001E-2</v>
+      </c>
+      <c r="K93">
+        <v>0.1433952</v>
+      </c>
+      <c r="L93">
+        <v>52</v>
+      </c>
+      <c r="M93">
         <v>0.40734890000000001</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>0.1400574</v>
       </c>
-      <c r="L93">
+      <c r="O93">
         <v>54</v>
-      </c>
-      <c r="M93">
-        <v>-9.2330200000000001E-2</v>
-      </c>
-      <c r="N93">
-        <v>0.1433952</v>
-      </c>
-      <c r="O93">
-        <v>52</v>
       </c>
       <c r="P93">
         <v>0.26483069999999997</v>

--- a/Atlas application All heatmaps ver2/data/dataASDID.xlsx
+++ b/Atlas application All heatmaps ver2/data/dataASDID.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/Atlas application All heatmaps ver2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsj24/Downloads/c870b7ff5e4342f7969b500139a3da9c/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27428533-6F18-544F-9722-81A6C9810DA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB38048-D0B5-B641-B327-B37CD74FA6AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30260" yWindow="-3640" windowWidth="27800" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14840" yWindow="500" windowWidth="18760" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="output_any_id_asd" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>date</t>
   </si>
@@ -31,478 +31,349 @@
     <t>diagnosis</t>
   </si>
   <si>
-    <t>child_0_est</t>
+    <t>ASD</t>
   </si>
   <si>
-    <t>child_0_se</t>
+    <t>Any mental</t>
   </si>
   <si>
-    <t>child_0_n</t>
+    <t>Organic mental</t>
   </si>
   <si>
-    <t>child_1_est</t>
+    <t>Psychoactive sub use</t>
   </si>
   <si>
-    <t>child_1_se</t>
+    <t xml:space="preserve">Schizophrenia spectrum </t>
   </si>
   <si>
-    <t>child_1_n</t>
+    <t>Schizophrenia</t>
   </si>
   <si>
-    <t>sib1_sex0_est</t>
+    <t xml:space="preserve">Any mood </t>
   </si>
   <si>
-    <t>sib1_sex0_se</t>
+    <t>Bipolar disorder</t>
   </si>
   <si>
-    <t>sib1_sex0_n</t>
+    <t>Depression</t>
   </si>
   <si>
-    <t>sib1_sex1_est</t>
+    <t>Neurotic/stress disorder</t>
   </si>
   <si>
-    <t>sib1_sex1_se</t>
+    <t>OCD</t>
   </si>
   <si>
-    <t>sib1_sex1_n</t>
+    <t>Behav synd-physiol</t>
   </si>
   <si>
-    <t>maternal_sib0_sex0_est</t>
+    <t>Anorexia nervosa</t>
   </si>
   <si>
-    <t>maternal_sib0_sex0_se</t>
+    <t>Adult personality disorder</t>
   </si>
   <si>
-    <t>maternal_sib0_sex0_n</t>
+    <t>Intellectual disability</t>
   </si>
   <si>
-    <t>paternal_sib0_sex0_est</t>
+    <t>Psych dev dis.not ASD</t>
   </si>
   <si>
-    <t>paternal_sib0_sex0_se</t>
+    <t>Behav dis-child onset</t>
   </si>
   <si>
-    <t>paternal_sib0_sex0_n</t>
+    <t>ADHD</t>
   </si>
   <si>
-    <t>maternal_sib0_sex1_est</t>
+    <t>Tic disorder</t>
   </si>
   <si>
-    <t>maternal_sib0_sex1_se</t>
+    <t>Mental-unspecified</t>
   </si>
   <si>
-    <t>maternal_sib0_sex1_n</t>
+    <t>Any diabetes</t>
   </si>
   <si>
-    <t>paternal_sib0_sex1_est</t>
+    <t>Diabetes outside preg</t>
   </si>
   <si>
-    <t>paternal_sib0_sex1_se</t>
+    <t>Type 1 diabetes</t>
   </si>
   <si>
-    <t>paternal_sib0_sex1_n</t>
+    <t>Type 2 diabetes</t>
   </si>
   <si>
-    <t>m_est</t>
+    <t>Chronic+gest diab</t>
   </si>
   <si>
-    <t>m_se</t>
+    <t>Obesity</t>
   </si>
   <si>
-    <t>m_n</t>
+    <t>Any hypertension</t>
   </si>
   <si>
-    <t>f_est</t>
+    <t>Hyper outside preg</t>
   </si>
   <si>
-    <t>f_se</t>
+    <t>Chronic+gest hyper</t>
   </si>
   <si>
-    <t>f_n</t>
+    <t>Preeclam/eclam</t>
   </si>
   <si>
-    <t>mm_est</t>
+    <t>Any birth defect</t>
   </si>
   <si>
-    <t>mm_se</t>
+    <t>CNS</t>
   </si>
   <si>
-    <t>mm_n</t>
+    <t>Eye</t>
   </si>
   <si>
-    <t>mf_est</t>
+    <t>Ear</t>
   </si>
   <si>
-    <t>mf_se</t>
+    <t>Heart</t>
   </si>
   <si>
-    <t>mf_n</t>
+    <t>Respiratory</t>
   </si>
   <si>
-    <t>fm_est</t>
+    <t>Lip</t>
   </si>
   <si>
-    <t>fm_se</t>
+    <t>Digestive system</t>
   </si>
   <si>
-    <t>fm_n</t>
+    <t>Genital</t>
   </si>
   <si>
-    <t>ff_est</t>
+    <t>Urinary tract</t>
   </si>
   <si>
-    <t>ff_se</t>
+    <t>Musculoskeletal</t>
   </si>
   <si>
-    <t>ff_n</t>
+    <t>Skin</t>
   </si>
   <si>
-    <t>mua_0_est</t>
+    <t>Other/chromos</t>
   </si>
   <si>
-    <t>mua_0_se</t>
+    <t>Chro/gene dis_ASD spe</t>
   </si>
   <si>
-    <t>mua_0_n</t>
+    <t>Any neurologic</t>
   </si>
   <si>
-    <t>mua_1_est</t>
+    <t>Inflammatory of CNS</t>
   </si>
   <si>
-    <t>mua_1_se</t>
+    <t>Systemic atrophies</t>
   </si>
   <si>
-    <t>mua_1_n</t>
+    <t>Extrapyramid</t>
   </si>
   <si>
-    <t>pua_0_est</t>
+    <t xml:space="preserve">Other degenerative </t>
   </si>
   <si>
-    <t>pua_0_se</t>
+    <t>Demyelinating of CNS</t>
   </si>
   <si>
-    <t>pua_0_n</t>
+    <t>Episodic</t>
   </si>
   <si>
-    <t>pua_1_est</t>
+    <t>Epilepsy</t>
   </si>
   <si>
-    <t>pua_1_se</t>
+    <t>Nerve disorder</t>
   </si>
   <si>
-    <t>pua_1_n</t>
+    <t>Polyneuropath</t>
   </si>
   <si>
-    <t>mcou_0_est</t>
+    <t xml:space="preserve">Myoneural </t>
   </si>
   <si>
-    <t>mcou_0_se</t>
+    <t xml:space="preserve">Cerebral palsy </t>
   </si>
   <si>
-    <t>mcou_0_n</t>
+    <t>Other neurologic</t>
   </si>
   <si>
-    <t>mcou_1_est</t>
+    <t>Thyrotoxicosis</t>
   </si>
   <si>
-    <t>mcou_1_se</t>
+    <t>Thyroiditis</t>
   </si>
   <si>
-    <t>mcou_1_n</t>
+    <t xml:space="preserve">Pri adrenocortical </t>
   </si>
   <si>
-    <t>pcou_0_est</t>
+    <t>Rheumatoid arthritis</t>
   </si>
   <si>
-    <t>pcou_0_se</t>
+    <t>Juvenile arthritis</t>
   </si>
   <si>
-    <t>pcou_0_n</t>
+    <t>Dermatopolymyositis</t>
   </si>
   <si>
-    <t>pcou_1_est</t>
+    <t>Polymyalgia</t>
   </si>
   <si>
-    <t>pcou_1_se</t>
+    <t>Scleroderma</t>
   </si>
   <si>
-    <t>pcou_1_n</t>
+    <t>Lupus erythema</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>Sjogren</t>
   </si>
   <si>
-    <t>mental</t>
+    <t xml:space="preserve">Ankylos spondil </t>
   </si>
   <si>
-    <t>mental_organic</t>
+    <t>Granulomato</t>
   </si>
   <si>
-    <t>mental_psychoactive</t>
+    <t>Celiac</t>
   </si>
   <si>
-    <t>mental_schizo_spectrum</t>
+    <t>Crohn</t>
   </si>
   <si>
-    <t>mental_schizo</t>
+    <t>Ulcerative colitis</t>
   </si>
   <si>
-    <t>mental_mood</t>
+    <t>Pernicious anem</t>
   </si>
   <si>
-    <t>mental_mood_bipolar</t>
+    <t>Hemolytic anem</t>
   </si>
   <si>
-    <t>mental_mood_depression</t>
+    <t>Purpura</t>
   </si>
   <si>
-    <t>mental_neurotic</t>
+    <t>Multiple sclerosis</t>
   </si>
   <si>
-    <t>mental_neurotic_ocd</t>
+    <t>Guillain-Bar</t>
   </si>
   <si>
-    <t>mental_behavioral</t>
+    <t>Myasthen grav</t>
   </si>
   <si>
-    <t>mental_behavioral_anex</t>
+    <t>Pemphigus</t>
   </si>
   <si>
-    <t>mental_adult</t>
+    <t>Psoriasis</t>
   </si>
   <si>
-    <t>mental_retardation</t>
+    <t>Alopecia areata</t>
   </si>
   <si>
-    <t>mental_development</t>
+    <t>Vitiligo</t>
   </si>
   <si>
-    <t>mental_emotional</t>
+    <t xml:space="preserve">Any endocrine </t>
   </si>
   <si>
-    <t>mental_emotional_adhd</t>
+    <t>Any connective</t>
   </si>
   <si>
-    <t>mental_emotional_tic</t>
+    <t>Any gastrointest</t>
   </si>
   <si>
-    <t>mental_unspecified</t>
+    <t>Any blood</t>
   </si>
   <si>
-    <t>cm_diabetes</t>
+    <t>Any nervous</t>
   </si>
   <si>
-    <t>cm_doutpreg</t>
+    <t>Any skin</t>
   </si>
   <si>
-    <t>cm_t1d</t>
+    <t>Any autoimmune</t>
   </si>
   <si>
-    <t>cm_t2d</t>
+    <t>Asthma</t>
   </si>
   <si>
-    <t>cm_dinpreg</t>
+    <t>Allergies</t>
   </si>
   <si>
-    <t>cm_obesity</t>
+    <t>Index child (f) log(HR)</t>
   </si>
   <si>
-    <t>cm_hypertension</t>
+    <t>SE</t>
   </si>
   <si>
-    <t>cm_hypoutpred</t>
+    <t>n</t>
   </si>
   <si>
-    <t>cm_hypinpred</t>
+    <t>Index child (m) log(HR)</t>
   </si>
   <si>
-    <t>cm_preeclampsia</t>
+    <t>Brother log(HR)</t>
   </si>
   <si>
-    <t>bd</t>
+    <t>Sister log(HR)</t>
   </si>
   <si>
-    <t>bd_cns</t>
+    <t>Mat. half sister log(HR)</t>
   </si>
   <si>
-    <t>bd_eye</t>
+    <t>Pat. half sister log(HR)</t>
   </si>
   <si>
-    <t>bd_ear</t>
+    <t>Mat. half brother log(HR)</t>
   </si>
   <si>
-    <t>bd_heart</t>
+    <t>Pat. half brother log(HR)</t>
   </si>
   <si>
-    <t>bd_respiratory</t>
+    <t>Mother log(HR)</t>
   </si>
   <si>
-    <t>bd_lip</t>
+    <t>Father log(HR)</t>
   </si>
   <si>
-    <t>bd_digestive</t>
+    <t>Mat. grandmother log(HR)</t>
   </si>
   <si>
-    <t>bd_genital</t>
+    <t>Mat. grandfather log(HR)</t>
   </si>
   <si>
-    <t>bd_urinary</t>
+    <t>Pat. grandmother log(HR)</t>
   </si>
   <si>
-    <t>bd_musculoskeletal</t>
+    <t>Pat. grandfather log(HR)</t>
   </si>
   <si>
-    <t>bd_skin</t>
+    <t>Mat. aunt log(HR)</t>
   </si>
   <si>
-    <t>bd_other</t>
+    <t>Mat. uncle log(HR)</t>
   </si>
   <si>
-    <t>bd_asdspecific</t>
+    <t>Pat. aunt log(HR)</t>
   </si>
   <si>
-    <t>ne</t>
+    <t>Pat. uncle log(HR)</t>
   </si>
   <si>
-    <t>ne_inflammatory</t>
+    <t>Mat. cousin (f) log(HR)</t>
   </si>
   <si>
-    <t>ne_systemic</t>
+    <t>Mat. cousin (m) log(HR)</t>
   </si>
   <si>
-    <t>ne_extrapyramid</t>
+    <t>Pat. cousin (f) log(HR)</t>
   </si>
   <si>
-    <t>ne_otherdegene</t>
-  </si>
-  <si>
-    <t>ne_demyelinating</t>
-  </si>
-  <si>
-    <t>ne_episodic</t>
-  </si>
-  <si>
-    <t>ne_episodic_epilep</t>
-  </si>
-  <si>
-    <t>ne_nerve</t>
-  </si>
-  <si>
-    <t>ne_polynepathi</t>
-  </si>
-  <si>
-    <t>ne_myoneural</t>
-  </si>
-  <si>
-    <t>ne_cerebralpal</t>
-  </si>
-  <si>
-    <t>ne_other</t>
-  </si>
-  <si>
-    <t>ai_t1d</t>
-  </si>
-  <si>
-    <t>ai_thyrotoxico</t>
-  </si>
-  <si>
-    <t>ai_thyroiditis</t>
-  </si>
-  <si>
-    <t>ai_adrenocortical</t>
-  </si>
-  <si>
-    <t>ai_rheumatoid</t>
-  </si>
-  <si>
-    <t>ai_juvenile</t>
-  </si>
-  <si>
-    <t>ai_dermatopolymyo</t>
-  </si>
-  <si>
-    <t>ai_polymyalgia</t>
-  </si>
-  <si>
-    <t>ai_scleroderma</t>
-  </si>
-  <si>
-    <t>ai_erythemato</t>
-  </si>
-  <si>
-    <t>ai_sjogren</t>
-  </si>
-  <si>
-    <t>ai_spondili</t>
-  </si>
-  <si>
-    <t>ai_granulomato</t>
-  </si>
-  <si>
-    <t>ai_celiac</t>
-  </si>
-  <si>
-    <t>ai_crohn</t>
-  </si>
-  <si>
-    <t>ai_colitis</t>
-  </si>
-  <si>
-    <t>ai_pernicious</t>
-  </si>
-  <si>
-    <t>ai_hemolytic</t>
-  </si>
-  <si>
-    <t>ai_purpura</t>
-  </si>
-  <si>
-    <t>ai_sclerosis</t>
-  </si>
-  <si>
-    <t>ai_guillainbar</t>
-  </si>
-  <si>
-    <t>ai_gravis</t>
-  </si>
-  <si>
-    <t>ai_pemphigus</t>
-  </si>
-  <si>
-    <t>ai_psoriasis</t>
-  </si>
-  <si>
-    <t>ai_areata</t>
-  </si>
-  <si>
-    <t>ai_vitiligo</t>
-  </si>
-  <si>
-    <t>ai_endocrine</t>
-  </si>
-  <si>
-    <t>ai_connective</t>
-  </si>
-  <si>
-    <t>ai_gastrointest</t>
-  </si>
-  <si>
-    <t>ai_blood</t>
-  </si>
-  <si>
-    <t>ai_nervous</t>
-  </si>
-  <si>
-    <t>ai_skin</t>
-  </si>
-  <si>
-    <t>autoimmune</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>allergies</t>
+    <t>Pat. cousin (m) log(HR)</t>
   </si>
 </sst>
 </file>
@@ -987,10 +858,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1373,7 +1247,7 @@
   <dimension ref="A1:BQ93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C90"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1381,7 +1255,7 @@
     <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" ht="64">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1391,203 +1265,203 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
+      <c r="D1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:69">
@@ -1598,7 +1472,7 @@
         <v>0.42385416666666664</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>1.70705</v>
@@ -1708,7 +1582,7 @@
         <v>0.44175925925925924</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>1.3575969999999999</v>
@@ -1899,7 +1773,7 @@
         <v>0.46475694444444443</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>3.3255629999999998</v>
@@ -2027,7 +1901,7 @@
         <v>0.48353009259259255</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>9.4631999999999997E-3</v>
@@ -2227,7 +2101,7 @@
         <v>0.50915509259259262</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>1.5838449999999999</v>
@@ -2436,7 +2310,7 @@
         <v>0.53327546296296291</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>1.6680520000000001</v>
@@ -2618,7 +2492,7 @@
         <v>0.56416666666666659</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>0.53427539999999996</v>
@@ -2827,7 +2701,7 @@
         <v>0.59486111111111117</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1.281979</v>
@@ -2919,7 +2793,7 @@
         <v>0.61131944444444442</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>0.33393240000000002</v>
@@ -3128,7 +3002,7 @@
         <v>0.64085648148148155</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>0.73348749999999996</v>
@@ -3337,7 +3211,7 @@
         <v>0.67721064814814813</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>0.83172860000000004</v>
@@ -3438,7 +3312,7 @@
         <v>0.69758101851851861</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>0.33378200000000002</v>
@@ -3566,7 +3440,7 @@
         <v>0.71833333333333327</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>0.15533130000000001</v>
@@ -3631,7 +3505,7 @@
         <v>0.73262731481481491</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>0.35547990000000002</v>
@@ -3840,7 +3714,7 @@
         <v>0.7596180555555555</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="J16">
         <v>2.1986159999999999</v>
@@ -4031,7 +3905,7 @@
         <v>0.78229166666666661</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>1.1774210000000001</v>
@@ -4177,7 +4051,7 @@
         <v>0.80460648148148151</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>1.1722250000000001</v>
@@ -4350,7 +4224,7 @@
         <v>0.83501157407407411</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>1.337191</v>
@@ -4478,7 +4352,7 @@
         <v>0.86081018518518526</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="G20">
         <v>1.755002</v>
@@ -4534,7 +4408,7 @@
         <v>0.8762847222222222</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>0.78383999999999998</v>
@@ -4698,7 +4572,7 @@
         <v>0.44689814814814816</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>0.28631590000000001</v>
@@ -4907,7 +4781,7 @@
         <v>0.47356481481481483</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>0.90859440000000002</v>
@@ -5107,7 +4981,7 @@
         <v>0.49998842592592596</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <v>0.60653659999999998</v>
@@ -5253,7 +5127,7 @@
         <v>0.52273148148148152</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>2.0880139999999998</v>
@@ -5372,7 +5246,7 @@
         <v>0.54125000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="J26">
         <v>0.53889319999999996</v>
@@ -5473,7 +5347,7 @@
         <v>0.55835648148148154</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>-6.1293300000000002E-2</v>
@@ -5673,7 +5547,7 @@
         <v>0.58964120370370365</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="D28">
         <v>-0.51135030000000004</v>
@@ -5855,7 +5729,7 @@
         <v>0.61512731481481475</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>0.91114870000000003</v>
@@ -6001,7 +5875,7 @@
         <v>0.63664351851851853</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="M30">
         <v>0.37667699999999998</v>
@@ -6102,7 +5976,7 @@
         <v>0.6544444444444445</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="M31">
         <v>0.3405648</v>
@@ -6194,7 +6068,7 @@
         <v>0.671412037037037</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D32">
         <v>0.70440170000000002</v>
@@ -6403,7 +6277,7 @@
         <v>0.71122685185185175</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="D33">
         <v>1.9191370000000001</v>
@@ -6504,7 +6378,7 @@
         <v>0.72923611111111108</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="G34">
         <v>1.2935099999999999</v>
@@ -6596,7 +6470,7 @@
         <v>0.74776620370370372</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>-7.6701E-3</v>
@@ -6778,7 +6652,7 @@
         <v>0.77351851851851849</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="D36">
         <v>0.7882555</v>
@@ -6978,7 +6852,7 @@
         <v>0.79940972222222229</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>0.74059770000000003</v>
@@ -7079,7 +6953,7 @@
         <v>0.81797453703703704</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="J38">
         <v>0.8364878</v>
@@ -7180,7 +7054,7 @@
         <v>0.83539351851851851</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="G39">
         <v>1.5298799999999999</v>
@@ -7308,7 +7182,7 @@
         <v>0.85482638888888884</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="G40">
         <v>0.58054660000000002</v>
@@ -7481,7 +7355,7 @@
         <v>0.88304398148148155</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D41">
         <v>1.223967</v>
@@ -7636,7 +7510,7 @@
         <v>0.90506944444444448</v>
       </c>
       <c r="C42" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="D42">
         <v>1.0410809999999999</v>
@@ -7845,7 +7719,7 @@
         <v>0.93709490740740742</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="G43">
         <v>0.32575100000000001</v>
@@ -7973,7 +7847,7 @@
         <v>0.95670138888888889</v>
       </c>
       <c r="C44" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D44">
         <v>2.5529289999999998</v>
@@ -8128,7 +8002,7 @@
         <v>0.97893518518518519</v>
       </c>
       <c r="C45" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="D45">
         <v>2.4662269999999999</v>
@@ -8211,7 +8085,7 @@
         <v>0.9959027777777778</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="D46">
         <v>1.0666469999999999</v>
@@ -8420,7 +8294,7 @@
         <v>3.5289351851851856E-2</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
       <c r="G47">
         <v>0.81052299999999999</v>
@@ -8584,7 +8458,7 @@
         <v>5.876157407407407E-2</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="AK48">
         <v>0.43419609999999997</v>
@@ -8604,7 +8478,7 @@
         <v>6.9641203703703705E-2</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="G49">
         <v>1.583934</v>
@@ -8660,7 +8534,7 @@
         <v>8.3530092592592586E-2</v>
       </c>
       <c r="C50" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:69">
@@ -8671,7 +8545,7 @@
         <v>9.3657407407407411E-2</v>
       </c>
       <c r="C51" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="AE51">
         <v>0.64551340000000001</v>
@@ -8745,7 +8619,7 @@
         <v>0.10935185185185185</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="D52">
         <v>1.2693030000000001</v>
@@ -8954,7 +8828,7 @@
         <v>0.14488425925925927</v>
       </c>
       <c r="C53" t="s">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="D53">
         <v>2.3445040000000001</v>
@@ -9163,7 +9037,7 @@
         <v>0.17413194444444444</v>
       </c>
       <c r="C54" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="G54">
         <v>-0.45446740000000002</v>
@@ -9345,7 +9219,7 @@
         <v>0.19813657407407406</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="G55">
         <v>1.409006</v>
@@ -9419,7 +9293,7 @@
         <v>0.21296296296296294</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>2.407635</v>
@@ -9457,7 +9331,7 @@
         <v>0.22454861111111113</v>
       </c>
       <c r="C57" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="D57">
         <v>3.2830460000000001</v>
@@ -9612,7 +9486,7 @@
         <v>0.24643518518518517</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="D58">
         <v>1.734491</v>
@@ -9776,7 +9650,7 @@
         <v>0.27045138888888892</v>
       </c>
       <c r="C59" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="G59">
         <v>0.60653659999999998</v>
@@ -9922,7 +9796,7 @@
         <v>0.29267361111111112</v>
       </c>
       <c r="C60" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="AB60">
         <v>-4.1206000000000003E-3</v>
@@ -10005,7 +9879,7 @@
         <v>0.3087037037037037</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="BL61">
         <v>0.97658120000000004</v>
@@ -10025,7 +9899,7 @@
         <v>0.32024305555555554</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:69">
@@ -10036,7 +9910,7 @@
         <v>0.3309259259259259</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="AB63">
         <v>0.30568970000000001</v>
@@ -10092,7 +9966,7 @@
         <v>0.34516203703703702</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="G64">
         <v>0.65688789999999997</v>
@@ -10175,7 +10049,7 @@
         <v>0.36197916666666669</v>
       </c>
       <c r="C65" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:69">
@@ -10186,7 +10060,7 @@
         <v>0.37343750000000003</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="AH66">
         <v>2.1752500000000001E-2</v>
@@ -10224,7 +10098,7 @@
         <v>0.3859143518518518</v>
       </c>
       <c r="C67" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:69">
@@ -10235,7 +10109,7 @@
         <v>0.39601851851851855</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="AN68">
         <v>0.43191190000000002</v>
@@ -10255,7 +10129,7 @@
         <v>0.40666666666666668</v>
       </c>
       <c r="C69" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="AH69">
         <v>0.19840050000000001</v>
@@ -10284,7 +10158,7 @@
         <v>0.41817129629629629</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="AK70">
         <v>0.40190199999999998</v>
@@ -10313,7 +10187,7 @@
         <v>0.42939814814814814</v>
       </c>
       <c r="C71" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:69">
@@ -10324,7 +10198,7 @@
         <v>0.43909722222222225</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="M72">
         <v>0.72022439999999999</v>
@@ -10371,7 +10245,7 @@
         <v>0.45297453703703705</v>
       </c>
       <c r="C73" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="AB73">
         <v>-3.32521E-2</v>
@@ -10463,7 +10337,7 @@
         <v>0.47141203703703699</v>
       </c>
       <c r="C74" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AB74">
         <v>5.1909499999999997E-2</v>
@@ -10591,7 +10465,7 @@
         <v>0.49331018518518516</v>
       </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="AK75">
         <v>0.96662740000000003</v>
@@ -10611,7 +10485,7 @@
         <v>0.50393518518518521</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:69">
@@ -10622,7 +10496,7 @@
         <v>0.515625</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="BL77">
         <v>0.81027930000000004</v>
@@ -10642,7 +10516,7 @@
         <v>0.52678240740740734</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="AE78">
         <v>0.81495300000000004</v>
@@ -10716,7 +10590,7 @@
         <v>0.54100694444444442</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AQ79">
         <v>8.2312499999999997E-2</v>
@@ -10736,7 +10610,7 @@
         <v>0.551875</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:69">
@@ -10747,7 +10621,7 @@
         <v>0.56216435185185187</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:69">
@@ -10758,7 +10632,7 @@
         <v>0.57307870370370373</v>
       </c>
       <c r="C82" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="AH82">
         <v>0.20544390000000001</v>
@@ -10823,7 +10697,7 @@
         <v>0.58916666666666673</v>
       </c>
       <c r="C83" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:69">
@@ -10834,7 +10708,7 @@
         <v>0.60160879629629627</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:69">
@@ -10845,7 +10719,7 @@
         <v>0.61707175925925928</v>
       </c>
       <c r="C85" t="s">
-        <v>152</v>
+        <v>85</v>
       </c>
       <c r="G85">
         <v>0.64097570000000004</v>
@@ -11009,7 +10883,7 @@
         <v>0.64224537037037044</v>
       </c>
       <c r="C86" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D86">
         <v>0.91878680000000001</v>
@@ -11164,7 +11038,7 @@
         <v>0.66335648148148152</v>
       </c>
       <c r="C87" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="G87">
         <v>-0.38247429999999999</v>
@@ -11328,7 +11202,7 @@
         <v>0.68663194444444453</v>
       </c>
       <c r="C88" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="AK88">
         <v>0.3992831</v>
@@ -11357,7 +11231,7 @@
         <v>0.69929398148148147</v>
       </c>
       <c r="C89" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="AB89">
         <v>-6.4210299999999998E-2</v>
@@ -11449,7 +11323,7 @@
         <v>0.71614583333333337</v>
       </c>
       <c r="C90" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="AB90">
         <v>-0.24347079999999999</v>
@@ -11550,7 +11424,7 @@
         <v>0.73381944444444447</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="D91">
         <v>0.2528881</v>
@@ -11759,7 +11633,7 @@
         <v>0.76175925925925936</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>92</v>
       </c>
       <c r="D92">
         <v>-2.2440700000000001E-2</v>
@@ -11968,7 +11842,7 @@
         <v>0.79626157407407405</v>
       </c>
       <c r="C93" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="D93">
         <v>-0.25740210000000002</v>
